--- a/BlazorAppMicroServiceSample.xlsx
+++ b/BlazorAppMicroServiceSample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hatsuyama\Blazor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hatsuyama\APIGateway\BlazorAppMicroServiceSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA2A956-9EE3-49AC-9B61-F1DDB98EB9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F3851-267A-44ED-ACA6-718CB63812E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61DD3C65-A889-4B58-AFE4-30385000AB6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -137,25 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>envoy.yamlを一部抜粋（envoyは大雑把にいうと、listenersに入って、clustersから出るみたな感じ）</t>
-    <rPh sb="11" eb="15">
-      <t>イチブバッスイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>オオザッパ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回はlistenersの以下を通る</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -231,6 +212,50 @@
     <rPh sb="8" eb="10">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>envoy.yamlを一部抜粋（envoyは大雑把にいうと、listenersに入って、clustersから出るみたいな感じ）</t>
+    <rPh sb="11" eb="15">
+      <t>イチブバッスイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>オオザッパ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻りってどうすればいいのか？？</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBの溜めてそれを参照？？</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventBusとか？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アグリゲーターからPOST??</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2050,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56354628-F263-4C69-867C-0B4072B1634C}">
-  <dimension ref="A10:D50"/>
+  <dimension ref="A10:D55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2120,52 +2145,72 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/BlazorAppMicroServiceSample.xlsx
+++ b/BlazorAppMicroServiceSample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hatsuyama\APIGateway\BlazorAppMicroServiceSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hatsuyama\APIGateway\aaaaaaaa\BlazorAppMicroServiceSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F3851-267A-44ED-ACA6-718CB63812E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0112D9A-622D-45C2-916F-2D4B278FF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61DD3C65-A889-4B58-AFE4-30385000AB6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -195,26 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ただこれ戻りがないので、ボタンを押すとエラーになる</t>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグで上記は確認できる</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>envoy.yamlを一部抜粋（envoyは大雑把にいうと、listenersに入って、clustersから出るみたいな感じ）</t>
     <rPh sb="11" eb="15">
       <t>イチブバッスイ</t>
@@ -234,28 +214,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻りってどうすればいいのか？？</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBの溜めてそれを参照？？</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EventBusとか？？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アグリゲーターからPOST??</t>
+    <t>で結果が画面に表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2075,7 +2043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56354628-F263-4C69-867C-0B4072B1634C}">
-  <dimension ref="A10:D55"/>
+  <dimension ref="A10:D48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2145,7 +2113,7 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
@@ -2183,34 +2151,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D50" t="s">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D55" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
